--- a/Figure_6_Revision/Data/GO for clusters/cluster9_gProfiler_athaliana_11-12-2023_8-44-49 PM__intersections.xlsx
+++ b/Figure_6_Revision/Data/GO for clusters/cluster9_gProfiler_athaliana_11-12-2023_8-44-49 PM__intersections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhh/Documents/GitHub/ETI_Project/Figure_6_Revision/Data/GO for clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A90E448-B4C9-A64D-9C33-394989034539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75765AAB-B7F1-4A43-86D3-A53702D35D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster9_gProfiler_athaliana_11" sheetId="1" r:id="rId1"/>
@@ -2979,10 +2979,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13508,8 +13509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13556,7 +13557,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -14186,7 +14187,7 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C20" t="s">
@@ -14789,8 +14790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15082,7 +15083,7 @@
       <c r="A9" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C9" t="s">
@@ -15327,7 +15328,7 @@
       <c r="A16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>507</v>
       </c>
       <c r="C16" t="s">
@@ -15887,7 +15888,7 @@
       <c r="A32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C32" t="s">
@@ -16307,7 +16308,7 @@
       <c r="A44" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C44" t="s">
@@ -17112,7 +17113,7 @@
       <c r="A67" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C67" t="s">
@@ -17147,7 +17148,7 @@
       <c r="A68" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C68" t="s">
@@ -17182,7 +17183,7 @@
       <c r="A69" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C69" t="s">
@@ -17917,7 +17918,7 @@
       <c r="A90" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C90" t="s">
@@ -18057,7 +18058,7 @@
       <c r="A94" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C94" t="s">
@@ -18652,7 +18653,7 @@
       <c r="A111" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>475</v>
       </c>
       <c r="C111" t="s">
@@ -19247,7 +19248,7 @@
       <c r="A128" t="s">
         <v>106</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C128" t="s">
@@ -19912,7 +19913,7 @@
       <c r="A147" t="s">
         <v>106</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>665</v>
       </c>
       <c r="C147" t="s">
@@ -19982,7 +19983,7 @@
       <c r="A149" t="s">
         <v>106</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C149" t="s">
@@ -20017,7 +20018,7 @@
       <c r="A150" t="s">
         <v>106</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C150" t="s">
@@ -21207,7 +21208,7 @@
       <c r="A184" t="s">
         <v>106</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C184" t="s">
@@ -22021,7 +22022,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22173,7 +22174,7 @@
       <c r="A5" t="s">
         <v>679</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>680</v>
       </c>
       <c r="C5" t="s">
@@ -22243,7 +22244,7 @@
       <c r="A7" t="s">
         <v>679</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>749</v>
       </c>
       <c r="C7" t="s">
@@ -23048,7 +23049,7 @@
       <c r="A30" t="s">
         <v>679</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>767</v>
       </c>
       <c r="C30" t="s">
